--- a/biology/Botanique/Habenaria_microceras/Habenaria_microceras.xlsx
+++ b/biology/Botanique/Habenaria_microceras/Habenaria_microceras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Habenaria microceras Hook.f. est une espèce de plantes la famille des Orchidaceae et du genre Habenaria, subendémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Habenaria microceras est une plante mesurant entre 30 et 70 cm de haut avec des feuilles elliptiques mesurant de 3 à 10 cm de long. Ses fleurs vertes poussent en grappe de 10 à 25 cm de long[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habenaria microceras est une plante mesurant entre 30 et 70 cm de haut avec des feuilles elliptiques mesurant de 3 à 10 cm de long. Ses fleurs vertes poussent en grappe de 10 à 25 cm de long.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Habenaria microceras est une plante qui pousse dans les prairies montagnardes du Cameroun et de la Guinée équatoriale (Bioko)[3]. C'est une plante qui vit parfois en écotone avec la forêt et elle est rarement épiphyte[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habenaria microceras est une plante qui pousse dans les prairies montagnardes du Cameroun et de la Guinée équatoriale (Bioko). C'est une plante qui vit parfois en écotone avec la forêt et elle est rarement épiphyte
 </t>
         </is>
       </c>
